--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCD/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCD/10/seed1/result_data_KNN.xlsx
@@ -499,13 +499,13 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>4.836</v>
+        <v>5.590999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.172</v>
+        <v>-13.038</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.415999999999999</v>
+        <v>-8.007999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.172</v>
+        <v>-12.413</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.406000000000001</v>
+        <v>6.957000000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.276</v>
+        <v>-12.8</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.537999999999999</v>
+        <v>-7.946</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -703,10 +703,10 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>6.406000000000001</v>
+        <v>6.107</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.858</v>
+        <v>-12.449</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -743,7 +743,7 @@
         <v>-15.19</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.720000000000001</v>
+        <v>-7.835999999999999</v>
       </c>
       <c r="E18" t="n">
         <v>12.54</v>
